--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731463765664" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731489731376" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731489791389" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731490381408" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731491011724" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912841939447" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291287560992" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912875629926" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912876377008" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291287736451" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731463415654.csv</t>
+          <t>go_stims-16502912841621745.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731463595634.csv</t>
+          <t>GNG_stims-16502912841769805.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731463605678.csv</t>
+          <t>go_stims-16502912841779866.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731463755634.csv</t>
+          <t>GNG_stims-16502912841929436.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731469205077.csv</t>
+          <t>OB-16502912854369676.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-164987314810517.csv</t>
+          <t>ZB-match_7-1650291284602591.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498731470385096.csv</t>
+          <t>OB-1650291285789912.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498731468195052.csv</t>
+          <t>TB-16502912871780229.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498731474475114.csv</t>
+          <t>TB-16502912862272243.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498731471995087.csv</t>
+          <t>ZB-match_7-1650291284498439.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-1649873146428566.csv</t>
+          <t>ZB-match_9-16502912847444227.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498731489541416.csv</t>
+          <t>OB-1650291285385154.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498731465645666.csv</t>
+          <t>TB-1650291287542437.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731490051382.csv</t>
+          <t>MM_stims-16502912875931566.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873148982138.csv</t>
+          <t>ZM_stims-16502912875666442.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731490211384.csv</t>
+          <t>MM_stims-1650291287623221.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731490061364.csv</t>
+          <t>ZM_stims-1650291287594151.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731490371432.csv</t>
+          <t>MM_stims-16502912876367004.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731490221398.csv</t>
+          <t>ZM_stims-16502912876242204.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873149053138.csv</t>
+          <t>SAT_stims-16502912876714535.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873149086137.csv</t>
+          <t>SAT_stims-16502912876429887.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731490691373.csv</t>
+          <t>vSAT_stims-16502912876931376.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731490411386.csv</t>
+          <t>vSAT_stims-1650291287724178.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912841939447" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291287560992" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912875629926" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912876377008" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291287736451" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778909226837" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778930910718" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778930969808" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778931559844" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477893218987" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912841621745.csv</t>
+          <t>go_stims-1650477890893684.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912841769805.csv</t>
+          <t>GNG_stims-1650477890905681.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912841779866.csv</t>
+          <t>go_stims-16504778909076836.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912841929436.csv</t>
+          <t>GNG_stims-16504778909216821.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912854369676.csv</t>
+          <t>TB-16504778930770135.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650291284602591.csv</t>
+          <t>OB-16504778921819835.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650291285789912.csv</t>
+          <t>ZB-match_2-16504778910236807.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912871780229.csv</t>
+          <t>TB-16504778928480136.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912862272243.csv</t>
+          <t>ZB-match_4-16504778915506806.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650291284498439.csv</t>
+          <t>TB-16504778925270133.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912847444227.csv</t>
+          <t>ZB-match_5-1650477891532685.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650291285385154.csv</t>
+          <t>OB-16504778917686841.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650291287542437.csv</t>
+          <t>OB-1650477891849979.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912875931566.csv</t>
+          <t>MM_stims-16504778931229813.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912875666442.csv</t>
+          <t>ZM_stims-16504778930989816.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291287623221.csv</t>
+          <t>MM_stims-1650477893139014.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291287594151.csv</t>
+          <t>ZM_stims-16504778931229813.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912876367004.csv</t>
+          <t>MM_stims-16504778931550152.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912876242204.csv</t>
+          <t>ZM_stims-16504778931399837.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912876714535.csv</t>
+          <t>SAT_stims-16504778931590152.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912876429887.csv</t>
+          <t>vSAT_stims-16504778931870136.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912876931376.csv</t>
+          <t>vSAT_stims-16504778932030134.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291287724178.csv</t>
+          <t>SAT_stims-16504778931709802.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778909226837" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778930910718" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778930969808" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778931559844" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477893218987" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961913490465" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961940931132" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961940931132" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961941410816" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996194221098" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477890893684.csv</t>
+          <t>go_stims-16509961913170722.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477890905681.csv</t>
+          <t>GNG_stims-16509961913330755.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778909076836.csv</t>
+          <t>go_stims-16509961913330755.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778909216821.csv</t>
+          <t>GNG_stims-16509961913490465.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504778930770135.csv</t>
+          <t>TB-16509961931650734.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778921819835.csv</t>
+          <t>ZB-match_6-1650996192109042.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778910236807.csv</t>
+          <t>ZB-match_7-1650996192173087.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504778928480136.csv</t>
+          <t>OB-16509961924930778.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778915506806.csv</t>
+          <t>TB-1650996194069082.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778925270133.csv</t>
+          <t>ZB-match_6-16509961914130428.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477891532685.csv</t>
+          <t>TB-16509961939330823.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778917686841.csv</t>
+          <t>OB-16509961926930804.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1650477891849979.csv</t>
+          <t>OB-16509961922850437.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778931229813.csv</t>
+          <t>MM_stims-16509961941090858.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778930989816.csv</t>
+          <t>ZM_stims-16509961940931132.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477893139014.csv</t>
+          <t>MM_stims-16509961941250787.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778931229813.csv</t>
+          <t>ZM_stims-16509961941090858.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778931550152.csv</t>
+          <t>MM_stims-16509961941410816.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778931399837.csv</t>
+          <t>ZM_stims-16509961941250787.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778931590152.csv</t>
+          <t>SAT_stims-165099619414905.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778931870136.csv</t>
+          <t>vSAT_stims-16509961941890543.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778932030134.csv</t>
+          <t>SAT_stims-16509961941730843.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778931709802.csv</t>
+          <t>vSAT_stims-16509961942050872.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961913490465" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961940931132" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961940931132" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961941410816" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996194221098" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687955517156" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687978006673" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168797802669" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687978480496" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687979225714" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961913170722.csv</t>
+          <t>go_stims-16511687955184298.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961913330755.csv</t>
+          <t>GNG_stims-16511687955356123.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961913330755.csv</t>
+          <t>go_stims-16511687955366578.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961913490465.csv</t>
+          <t>GNG_stims-16511687955513039.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961931650734.csv</t>
+          <t>ZB-match_2-1651168796010915.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650996192109042.csv</t>
+          <t>OB-16511687969974542.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650996192173087.csv</t>
+          <t>ZB-match_7-1651168796438322.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961924930778.csv</t>
+          <t>OB-16511687967640924.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650996194069082.csv</t>
+          <t>TB-16511687977768023.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961914130428.csv</t>
+          <t>ZB-match_9-16511687958744051.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961939330823.csv</t>
+          <t>TB-16511687977093174.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961926930804.csv</t>
+          <t>OB-16511687972856417.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961922850437.csv</t>
+          <t>TB-16511687973971684.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961941090858.csv</t>
+          <t>MM_stims-16511687978160298.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961940931132.csv</t>
+          <t>ZM_stims-16511687978046694.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961941250787.csv</t>
+          <t>MM_stims-16511687978313417.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961941090858.csv</t>
+          <t>ZM_stims-16511687978170109.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961941410816.csv</t>
+          <t>MM_stims-16511687978469663.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961941250787.csv</t>
+          <t>ZM_stims-16511687978323357.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-165099619414905.csv</t>
+          <t>SAT_stims-16511687978782344.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961941890543.csv</t>
+          <t>vSAT_stims-1651168797907819.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961941730843.csv</t>
+          <t>SAT_stims-16511687978528929.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961942050872.csv</t>
+          <t>vSAT_stims-16511687978920105.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687955517156" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687978006673" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168797802669" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687978480496" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687979225714" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556209355602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556253085067" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556253103416" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255625356043" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255625433689" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687955184298.csv</t>
+          <t>go_stims-16512556208945637.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687955356123.csv</t>
+          <t>GNG_stims-16512556209175577.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687955366578.csv</t>
+          <t>go_stims-16512556209195583.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687955513039.csv</t>
+          <t>GNG_stims-16512556209335601.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651168796010915.csv</t>
+          <t>OB-16512556219568968.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687969974542.csv</t>
+          <t>TB-16512556251810222.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_7-1651168796438322.csv</t>
+          <t>TB-16512556252882862.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511687967640924.csv</t>
+          <t>OB-1651255623047286.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687977768023.csv</t>
+          <t>ZB-match_8-1651255621563529.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687958744051.csv</t>
+          <t>ZB-match_7-1651255621842907.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511687977093174.csv</t>
+          <t>TB-165125562332639.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687972856417.csv</t>
+          <t>ZB-match_9-16512556212512975.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687973971684.csv</t>
+          <t>OB-16512556228870242.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687978160298.csv</t>
+          <t>MM_stims-16512556253243928.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687978046694.csv</t>
+          <t>ZM_stims-16512556253133402.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687978313417.csv</t>
+          <t>MM_stims-16512556253398125.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687978170109.csv</t>
+          <t>ZM_stims-16512556253253915.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687978469663.csv</t>
+          <t>MM_stims-1651255625356043.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687978323357.csv</t>
+          <t>ZM_stims-16512556253408103.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687978782344.csv</t>
+          <t>SAT_stims-16512556253616533.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168797907819.csv</t>
+          <t>vSAT_stims-16512556254036276.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687978528929.csv</t>
+          <t>vSAT_stims-1651255625418362.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687978920105.csv</t>
+          <t>SAT_stims-16512556253884137.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_46/participant_46_task_orders.xlsx
+++ b/participants/participant_46/participant_46_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556209355602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556253085067" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556253103416" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255625356043" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255625433689" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16515890418614779" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515890418614779" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515890429921908" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515890430390368" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890431015334" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556208945637.csv</t>
+          <t>go_stims-1651589041830263.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556209175577.csv</t>
+          <t>GNG_stims-16515890418458896.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556209195583.csv</t>
+          <t>go_stims-16515890418458896.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556209335601.csv</t>
+          <t>GNG_stims-16515890418614779.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512556219568968.csv</t>
+          <t>TB-16515890429765658.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512556251810222.csv</t>
+          <t>ZB-match_7-1651589042086581.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512556252882862.csv</t>
+          <t>OB-16515890422780278.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1651255623047286.csv</t>
+          <t>TB-16515890428014767.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-1651255621563529.csv</t>
+          <t>ZB-match_2-16515890421803281.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +612,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1651255621842907.csv</t>
+          <t>OB-165158904225842.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +622,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-165125562332639.csv</t>
+          <t>ZB-match_6-1651589042242828.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +632,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512556212512975.csv</t>
+          <t>OB-16515890426743877.csv</t>
         </is>
       </c>
     </row>
@@ -596,53 +642,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512556228870242.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
+          <t>TB-1651589042754635.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556253243928.csv</t>
+          <t>MM_stims-1651589043007842.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556253133402.csv</t>
+          <t>ZM_stims-16515890429921908.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556253398125.csv</t>
+          <t>MM_stims-16515890430234113.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556253253915.csv</t>
+          <t>ZM_stims-1651589043007842.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651255625356043.csv</t>
+          <t>MM_stims-16515890430390368.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556253408103.csv</t>
+          <t>ZM_stims-16515890430234113.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556253616533.csv</t>
+          <t>vSAT_stims-16515890430702853.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556254036276.csv</t>
+          <t>SAT_stims-16515890430546608.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255625418362.csv</t>
+          <t>SAT_stims-16515890430390368.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556253884137.csv</t>
+          <t>vSAT_stims-1651589043085909.csv</t>
         </is>
       </c>
     </row>
